--- a/data/georgia_census/samegrelo/zugdidi/average_wages.xlsx
+++ b/data/georgia_census/samegrelo/zugdidi/average_wages.xlsx
@@ -1096,13 +1096,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC53DE28-D5D8-48C2-8396-37B0922A317D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E43CAB1-DDD6-4024-9361-E3F2E3FA986E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDD12069-3957-40ED-A54E-C085BF90D847}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4775B1F9-C206-44A9-BEF1-6EEE4D787D4D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{254B549F-BB82-4051-A105-FEFFBC3E69AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{634CE6B9-D41F-4929-8A8D-63E53D23BE77}"/>
 </file>